--- a/Input/Cigna_EBP/benefits.xlsx
+++ b/Input/Cigna_EBP/benefits.xlsx
@@ -72,7 +72,7 @@
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="52" table:default-cell-style-name="ce1"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="51" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="10" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -98,9 +98,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Pre-existing Condition Cover</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>In-patient (Hospitalization &amp; Surgery)</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accommodation Type</text:p>
@@ -271,7 +268,6 @@
             <text:p>Covered up to AED 150,000 subject to declaration</text:p>
             <text:p>*6 months wait</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2"/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Semi- private Room</text:p>
           </table:table-cell>
@@ -382,11 +378,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2023-05-24T10:01:27.382730876</meta:creation-date>
-    <dc:date>2023-05-24T10:27:05.359905509</dc:date>
-    <meta:editing-duration>PT6M26S</meta:editing-duration>
-    <meta:editing-cycles>4</meta:editing-cycles>
+    <dc:date>2023-08-18T17:11:30.946770352</dc:date>
+    <meta:editing-duration>PT6M55S</meta:editing-duration>
+    <meta:editing-cycles>5</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="105" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="104" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -397,21 +393,21 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">126435</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">124177</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">4026</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">52</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">45</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -423,7 +419,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1261</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1799</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">74</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -455,7 +451,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">ugH+/0hQX0xhc2VyX01GUF8xMzZud19IUEY0MzkwOTYwRTAxN18AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlcl9NRlBfMTM2bndfSFBGNDM5MAAWAAMA1wAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJfTUZQXzEzNm53X0hQRjQzOTA5NjBFMDE3XwpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKSW5wdXRTbG90OlRyYXkxAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERRMARHVwbGV4TW9kZTo6VW5rbm93bg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">ugH+/0hQX0xhc2VyX01GUF8xMzZud19IUEY0MzkwOTYwRTAxN18AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlcl9NRlBfMTM2bndfSFBGNDM5MAAWAAMA1wAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJfTUZQXzEzNm53X0hQRjQzOTA5NjBFMDE3XwpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQASW5wdXRTbG90OlRyYXkxAAASAENPTVBBVF9EVVBMRVhfTU9ERRMARHVwbGV4TW9kZTo6VW5rbm93bg==</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">HP_Laser_MFP_136nw_HPF4390960E017_</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -621,9 +617,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2023-05-24">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2023-08-18">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="10:26:51.360623008">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="17:11:01.278941430">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
